--- a/biology/Mycologie/Marasmius/Marasmius.xlsx
+++ b/biology/Mycologie/Marasmius/Marasmius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marasmius (les Marasmes) est un genre de champignons basidiomycètes de la famille des Marasmiacées.
-Leur nom, tiré du grec ancien μαρασμός, marasmos (« dessèchement »), fait allusion à leur capacité de se dessécher sur place pour reprendre leur aspect après réhydratation[1].
+Leur nom, tiré du grec ancien μαρασμός, marasmos (« dessèchement »), fait allusion à leur capacité de se dessécher sur place pour reprendre leur aspect après réhydratation.
 Il s'agit de champignons de petite taille, voire minuscules, généralement coriaces par temps sec, souvent hygrophanes. 
 </t>
         </is>
@@ -513,17 +525,19 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Revêtement typiquement celluleux, à hyphes + - isodiamétriques, lisses ou en brosse, rarement clavées. Pas de poils superficiels remarquables. Espèce type: Marasmius rotula[2],[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Revêtement typiquement celluleux, à hyphes + - isodiamétriques, lisses ou en brosse, rarement clavées. Pas de poils superficiels remarquables. Espèce type: Marasmius rotula,
 Les espèces de la section Marasmius ont un collarium tubulaire distinct.
 Sous.-genre Alliacei : Espèces charnues ou élancées à odeur + - alliacée au moins avec l'âge ou la trituration; non greffées (à mycélium basal). Trame non dextrinoïde. Esp. type : M. alliaceus (Jacq.: Fr.) Fr.
 Section Odorati : odeur alliacée complexe, nette ou + - mêlée de poireau ou d'oignon. Habitat banal. Stature moyenne ou stipe non filiforme. Pleuros nulles.
-Section Sicci Singer: Cellules piléiques en  brosse + - digitée ou divericulée (type Sicci), à diverticules jusqu'à 4(5) x 1µm, parfois ramifiées. Esp. + - sylvatiques ou graminicoles à chap. sup. à (0,5) 1cm[4].
-Section Gliocephala (Mass.) Bon 2000 : Esp. pleurotoïdes ou excentrées, à lames pliciformes et trame gélifiée, non dextrinoïde. Habitat gen. sur plantes hygrophiles.Type Gliocephala epiphylla Mass. (non Marasmius epiphyllus Fr.[5])
+Section Sicci Singer: Cellules piléiques en  brosse + - digitée ou divericulée (type Sicci), à diverticules jusqu'à 4(5) x 1µm, parfois ramifiées. Esp. + - sylvatiques ou graminicoles à chap. sup. à (0,5) 1cm.
+Section Gliocephala (Mass.) Bon 2000 : Esp. pleurotoïdes ou excentrées, à lames pliciformes et trame gélifiée, non dextrinoïde. Habitat gen. sur plantes hygrophiles.Type Gliocephala epiphylla Mass. (non Marasmius epiphyllus Fr.)
 44 espèces en Europe.
 Le genre mondial comprend plusieurs centaines d'espèces, parmi lesquelles on peut citer :
-Marasmius alliaceus [1]
+Marasmius alliaceus 
 Marasmius candidus
 Marasmius cohaerens
 Marasmius limosus
